--- a/test_test.xlsx
+++ b/test_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF0A8CF-5558-4C7F-B4D9-E51822F35750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94207F14-5316-4FB3-B4DD-724CDA3655FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1636,13 +1636,12 @@
   <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.59765625" customWidth="1"/>
-    <col min="4" max="4" width="16.8984375" customWidth="1"/>
+    <col min="1" max="1" width="10.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.4">
